--- a/Selenium/Bugs/data/genre/가요.xlsx
+++ b/Selenium/Bugs/data/genre/가요.xlsx
@@ -241,7 +241,7 @@
     <t>바래진 기억에</t>
   </si>
   <si>
-    <t>첫 눈 그리고 첫 키스</t>
+    <t xml:space="preserve">첫 눈 그리고 첫 키스 </t>
   </si>
   <si>
     <t>여전히 아늑해(Prod.by 성시경)(Still)</t>
@@ -325,7 +325,7 @@
     <t>Merry-Go-Round [Christmas Edition]</t>
   </si>
   <si>
-    <t>Christmas Time</t>
+    <t xml:space="preserve">Christmas Time </t>
   </si>
   <si>
     <t>니가 내려와</t>
@@ -802,7 +802,7 @@
     <t>이별하러 가는 길</t>
   </si>
   <si>
-    <t>Christmas cafe</t>
+    <t xml:space="preserve">Christmas cafe </t>
   </si>
   <si>
     <t>안녕 메리크리스마스</t>
@@ -916,7 +916,7 @@
     <t>i'M THE TREND</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>사장님 도박은 재미로 하셔야 합니다</t>
   </si>
   <si>
     <t>동그라미</t>
